--- a/generated/spreadsheet/verbose/lawful-development-certificate-ldc-verbose.xlsx
+++ b/generated/spreadsheet/verbose/lawful-development-certificate-ldc-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,8 +438,8 @@
     <col width="27" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="72" customWidth="1" min="3" max="3"/>
-    <col width="33" customWidth="1" min="4" max="4"/>
-    <col width="33" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="31" customWidth="1" min="5" max="5"/>
     <col width="25" customWidth="1" min="6" max="6"/>
     <col width="25" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
@@ -3884,21 +3884,29 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n"/>
-      <c r="B65" s="2" t="n"/>
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>applicant-owns-land</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Applicant owns land</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr"/>
@@ -3909,7 +3917,7 @@
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether the applicant owns the land where the advertisement will be displayed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
@@ -3928,17 +3936,17 @@
       <c r="B66" s="2" t="n"/>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>permission-obtained</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Permission obtained</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
@@ -3949,12 +3957,12 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether permission of the owner for the display of an advertisement has been obtained</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
@@ -3968,17 +3976,17 @@
       <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>permission-not-obtained-details</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Permission not obtained details</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3989,7 +3997,7 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Details explaining why permission from the land owner has not been obtained for the advertisement display</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
@@ -4004,16 +4012,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A68" s="2" t="n"/>
+      <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -4021,12 +4021,12 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
@@ -4037,17 +4037,17 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4061,12 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr"/>
@@ -4077,7 +4077,7 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -4092,37 +4092,53 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n"/>
-      <c r="B70" s="2" t="n"/>
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr"/>
-      <c r="G70" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H70" s="2" t="inlineStr"/>
       <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr">
@@ -4136,28 +4152,36 @@
       <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr"/>
-      <c r="G71" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>address-text</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>Address Text</t>
+        </is>
+      </c>
       <c r="H71" s="2" t="inlineStr"/>
       <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
@@ -4176,28 +4200,36 @@
       <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr"/>
-      <c r="G72" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="H72" s="2" t="inlineStr"/>
       <c r="I72" s="2" t="inlineStr"/>
       <c r="J72" s="2" t="inlineStr"/>
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
@@ -4212,16 +4244,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A73" s="2" t="n"/>
+      <c r="B73" s="2" t="n"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -4239,12 +4263,12 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr"/>
@@ -4253,12 +4277,12 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
@@ -4287,12 +4311,12 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr"/>
@@ -4301,12 +4325,12 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N74" s="2" t="inlineStr">
@@ -4335,12 +4359,12 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr"/>
@@ -4349,12 +4373,12 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N75" s="2" t="inlineStr">
@@ -4383,12 +4407,12 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr"/>
@@ -4397,7 +4421,7 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
@@ -4431,12 +4455,12 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr"/>
@@ -4445,12 +4469,12 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
@@ -4479,12 +4503,12 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr"/>
@@ -4493,12 +4517,12 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
@@ -4508,50 +4532,50 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n"/>
-      <c r="B79" s="2" t="n"/>
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>longitude</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="inlineStr">
-        <is>
-          <t>Longitude</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr"/>
+      <c r="G79" s="2" t="inlineStr"/>
       <c r="H79" s="2" t="inlineStr"/>
       <c r="I79" s="2" t="inlineStr"/>
       <c r="J79" s="2" t="inlineStr"/>
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4560,46 +4584,38 @@
       <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+          <t>Site visit contact type</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr"/>
+      <c r="G80" s="2" t="inlineStr"/>
       <c r="H80" s="2" t="inlineStr"/>
       <c r="I80" s="2" t="inlineStr"/>
       <c r="J80" s="2" t="inlineStr"/>
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4608,36 +4624,28 @@
       <c r="B81" s="2" t="n"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr"/>
+      <c r="G81" s="2" t="inlineStr"/>
       <c r="H81" s="2" t="inlineStr"/>
       <c r="I81" s="2" t="inlineStr"/>
       <c r="J81" s="2" t="inlineStr"/>
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
@@ -4652,16 +4660,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A82" s="2" t="n"/>
+      <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -4669,28 +4669,36 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
-        </is>
-      </c>
-      <c r="F82" s="2" t="inlineStr"/>
-      <c r="G82" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H82" s="2" t="inlineStr"/>
       <c r="I82" s="2" t="inlineStr"/>
       <c r="J82" s="2" t="inlineStr"/>
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
@@ -4709,28 +4717,36 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr"/>
-      <c r="G83" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="H83" s="2" t="inlineStr"/>
       <c r="I83" s="2" t="inlineStr"/>
       <c r="J83" s="2" t="inlineStr"/>
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
@@ -4749,23 +4765,31 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr"/>
-      <c r="G84" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H84" s="2" t="inlineStr"/>
       <c r="I84" s="2" t="inlineStr"/>
       <c r="J84" s="2" t="inlineStr"/>
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
@@ -4774,150 +4798,6 @@
         </is>
       </c>
       <c r="N84" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n"/>
-      <c r="B85" s="2" t="n"/>
-      <c r="C85" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E85" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>fullname</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
-      <c r="H85" s="2" t="inlineStr"/>
-      <c r="I85" s="2" t="inlineStr"/>
-      <c r="J85" s="2" t="inlineStr"/>
-      <c r="K85" s="2" t="inlineStr"/>
-      <c r="L85" s="2" t="inlineStr">
-        <is>
-          <t>The complete name of a person</t>
-        </is>
-      </c>
-      <c r="M85" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N85" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n"/>
-      <c r="B86" s="2" t="n"/>
-      <c r="C86" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E86" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
-      <c r="H86" s="2" t="inlineStr"/>
-      <c r="I86" s="2" t="inlineStr"/>
-      <c r="J86" s="2" t="inlineStr"/>
-      <c r="K86" s="2" t="inlineStr"/>
-      <c r="L86" s="2" t="inlineStr">
-        <is>
-          <t>A phone number</t>
-        </is>
-      </c>
-      <c r="M86" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N86" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n"/>
-      <c r="B87" s="2" t="n"/>
-      <c r="C87" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E87" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F87" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G87" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H87" s="2" t="inlineStr"/>
-      <c r="I87" s="2" t="inlineStr"/>
-      <c r="J87" s="2" t="inlineStr"/>
-      <c r="K87" s="2" t="inlineStr"/>
-      <c r="L87" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="M87" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N87" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -4925,30 +4805,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A50:A67"/>
-    <mergeCell ref="B73:B81"/>
+    <mergeCell ref="B70:B78"/>
+    <mergeCell ref="B65:B69"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B25:B32"/>
     <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="A50:A64"/>
+    <mergeCell ref="A79:A84"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="B2:B20"/>
     <mergeCell ref="B46"/>
-    <mergeCell ref="B82:B87"/>
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B50:B67"/>
-    <mergeCell ref="A73:A81"/>
     <mergeCell ref="A46"/>
+    <mergeCell ref="A70:A78"/>
     <mergeCell ref="A2:A20"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B50:B64"/>
+    <mergeCell ref="B79:B84"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/lawful-development-certificate-ldc-verbose.xlsx
+++ b/generated/spreadsheet/verbose/lawful-development-certificate-ldc-verbose.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/lawful-development-certificate-ldc-verbose.xlsx
+++ b/generated/spreadsheet/verbose/lawful-development-certificate-ldc-verbose.xlsx
@@ -709,7 +709,7 @@
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/lawful-development-certificate-ldc-verbose.xlsx
+++ b/generated/spreadsheet/verbose/lawful-development-certificate-ldc-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,17 +1083,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>base64-content</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>checksum</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1339,22 +1339,22 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -1383,37 +1383,29 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1423,7 +1415,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1457,19 +1449,19 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -1513,75 +1505,67 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1591,21 +1575,13 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1613,23 +1589,31 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H21" s="2" t="inlineStr"/>
       <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1663,21 +1647,29 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
@@ -1687,7 +1679,7 @@
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1721,24 +1713,24 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -1748,8 +1740,16 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1757,63 +1757,47 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1831,21 +1815,29 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1855,7 +1847,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1889,19 +1881,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1911,7 +1903,7 @@
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1945,19 +1937,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -2001,19 +1993,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2057,19 +2049,19 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2079,7 +2071,7 @@
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2103,29 +2095,21 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
@@ -2159,12 +2143,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr"/>
@@ -2173,12 +2157,12 @@
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -2188,64 +2172,56 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2253,23 +2229,31 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H33" s="2" t="inlineStr"/>
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2303,21 +2287,29 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2327,7 +2319,7 @@
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2361,24 +2353,24 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -2388,72 +2380,64 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2471,21 +2455,29 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2495,7 +2487,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2529,19 +2521,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2551,7 +2543,7 @@
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2585,19 +2577,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2641,19 +2633,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2697,19 +2689,19 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
@@ -2719,77 +2711,61 @@
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>conflict-of-interest</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Conflict to declare</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -2797,12 +2773,12 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2813,17 +2789,17 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2837,12 +2813,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2853,7 +2829,7 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
@@ -2868,21 +2844,29 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2893,7 +2877,7 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2903,34 +2887,34 @@
       </c>
       <c r="N45" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Declaration</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>declaration</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2941,7 +2925,7 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
@@ -2956,16 +2940,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -2973,12 +2949,12 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2989,12 +2965,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -3013,12 +2989,12 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -3029,12 +3005,12 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -3044,21 +3020,29 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Interest details</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>interest-details</t>
+        </is>
+      </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>applicant-interest</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Applicant interest</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
@@ -3069,7 +3053,7 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Description of the applicant's interest in the land</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
@@ -3084,16 +3068,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Interest details</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>interest-details</t>
-        </is>
-      </c>
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
           <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
@@ -3101,23 +3077,39 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>applicant-interest</t>
+          <t>owner-details</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Applicant interest</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr"/>
-      <c r="H50" s="2" t="inlineStr"/>
-      <c r="I50" s="2" t="inlineStr"/>
+          <t>Owner details[]</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J50" s="2" t="inlineStr"/>
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Description of the applicant's interest in the land</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
@@ -3127,7 +3119,7 @@
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3161,19 +3153,19 @@
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3183,7 +3175,7 @@
       </c>
       <c r="N51" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3217,19 +3209,19 @@
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
@@ -3273,19 +3265,19 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr"/>
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3329,19 +3321,19 @@
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J54" s="2" t="inlineStr"/>
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
@@ -3351,7 +3343,7 @@
       </c>
       <c r="N54" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3375,39 +3367,31 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>informed-of-application</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Informed of application</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr"/>
       <c r="J55" s="2" t="inlineStr"/>
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Whether the owner has been informed of the application</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3421,41 +3405,49 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>owner-details</t>
+          <t>interested-persons</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Owner details[]</t>
+          <t>Interested persons[]</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>informed-of-application</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Informed of application</t>
-        </is>
-      </c>
-      <c r="H56" s="2" t="inlineStr"/>
-      <c r="I56" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Whether the owner has been informed of the application</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3489,19 +3481,19 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr"/>
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
@@ -3511,7 +3503,7 @@
       </c>
       <c r="N57" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3545,19 +3537,19 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J58" s="2" t="inlineStr"/>
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
@@ -3601,19 +3593,19 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J59" s="2" t="inlineStr"/>
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
@@ -3657,19 +3649,19 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
@@ -3679,7 +3671,7 @@
       </c>
       <c r="N60" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3703,29 +3695,21 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>nature-of-interest</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Nature of interest</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr"/>
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Description of the nature of a person's interest in the property</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
@@ -3735,7 +3719,7 @@
       </c>
       <c r="N61" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3759,12 +3743,12 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>nature-of-interest</t>
+          <t>informed-of-application</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Nature of interest</t>
+          <t>Informed of application</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
@@ -3773,12 +3757,12 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Description of the nature of a person's interest in the property</t>
+          <t>Whether the person has been informed of the application</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
@@ -3807,12 +3791,12 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>informed-of-application</t>
+          <t>reason-not-informed</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Informed of application</t>
+          <t>Reason not informed</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr"/>
@@ -3821,79 +3805,71 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Whether the person has been informed of the application</t>
+          <t>Reason why a person was not informed of the application</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n"/>
-      <c r="B64" s="2" t="n"/>
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>interested-persons</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Interested persons[]</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>reason-not-informed</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t>Reason not informed</t>
-        </is>
-      </c>
+          <t>Pre-application advice sought</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr"/>
       <c r="H64" s="2" t="inlineStr"/>
       <c r="I64" s="2" t="inlineStr"/>
       <c r="J64" s="2" t="inlineStr"/>
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Reason why a person was not informed of the application</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A65" s="2" t="n"/>
+      <c r="B65" s="2" t="n"/>
       <c r="C65" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -3901,12 +3877,12 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr"/>
@@ -3917,17 +3893,17 @@
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3941,12 +3917,12 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
@@ -3957,7 +3933,7 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
@@ -3981,12 +3957,12 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3997,7 +3973,7 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
@@ -4021,12 +3997,12 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
@@ -4037,7 +4013,7 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
@@ -4052,37 +4028,53 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n"/>
-      <c r="B69" s="2" t="n"/>
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr"/>
-      <c r="G69" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H69" s="2" t="inlineStr"/>
       <c r="I69" s="2" t="inlineStr"/>
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N69" s="2" t="inlineStr">
@@ -4092,16 +4084,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A70" s="2" t="n"/>
+      <c r="B70" s="2" t="n"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -4119,12 +4103,12 @@
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr"/>
@@ -4133,12 +4117,12 @@
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr">
@@ -4167,12 +4151,12 @@
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr"/>
@@ -4181,7 +4165,7 @@
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
@@ -4215,12 +4199,12 @@
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr"/>
@@ -4229,12 +4213,12 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
@@ -4263,12 +4247,12 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr"/>
@@ -4277,7 +4261,7 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
@@ -4311,12 +4295,12 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr"/>
@@ -4325,7 +4309,7 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
@@ -4359,12 +4343,12 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr"/>
@@ -4373,7 +4357,7 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
@@ -4407,12 +4391,12 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr"/>
@@ -4421,12 +4405,12 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N76" s="2" t="inlineStr">
@@ -4455,12 +4439,12 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr"/>
@@ -4469,7 +4453,7 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
@@ -4484,64 +4468,56 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n"/>
-      <c r="B78" s="2" t="n"/>
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr"/>
+      <c r="G78" s="2" t="inlineStr"/>
       <c r="H78" s="2" t="inlineStr"/>
       <c r="I78" s="2" t="inlineStr"/>
       <c r="J78" s="2" t="inlineStr"/>
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A79" s="2" t="n"/>
+      <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -4549,12 +4525,12 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
@@ -4565,12 +4541,12 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
@@ -4589,12 +4565,12 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
@@ -4605,17 +4581,17 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4629,23 +4605,31 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F81" s="2" t="inlineStr"/>
-      <c r="G81" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H81" s="2" t="inlineStr"/>
       <c r="I81" s="2" t="inlineStr"/>
       <c r="J81" s="2" t="inlineStr"/>
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
@@ -4655,7 +4639,7 @@
       </c>
       <c r="N81" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4679,12 +4663,12 @@
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr"/>
@@ -4693,7 +4677,7 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
@@ -4727,12 +4711,12 @@
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr"/>
@@ -4741,7 +4725,7 @@
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
@@ -4750,54 +4734,6 @@
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n"/>
-      <c r="B84" s="2" t="n"/>
-      <c r="C84" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H84" s="2" t="inlineStr"/>
-      <c r="I84" s="2" t="inlineStr"/>
-      <c r="J84" s="2" t="inlineStr"/>
-      <c r="K84" s="2" t="inlineStr"/>
-      <c r="L84" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="M84" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N84" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -4805,30 +4741,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B70:B78"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A64"/>
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="B46"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A46"/>
-    <mergeCell ref="A70:A78"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="B50:B64"/>
-    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="A49:A63"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B69:B77"/>
+    <mergeCell ref="B45"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A45"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B49:B63"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A69:A77"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/lawful-development-certificate-ldc-verbose.xlsx
+++ b/generated/spreadsheet/verbose/lawful-development-certificate-ldc-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,22 +1275,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,37 +1319,29 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1359,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1393,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1449,75 +1441,67 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1527,21 +1511,13 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1549,23 +1525,31 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1599,21 +1583,29 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1623,7 +1615,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1657,24 +1649,24 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1684,8 +1676,16 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1693,63 +1693,47 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1767,21 +1751,29 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1791,7 +1783,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1825,19 +1817,19 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1847,7 +1839,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1881,19 +1873,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1937,19 +1929,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1993,19 +1985,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2015,7 +2007,7 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2039,29 +2031,21 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2095,12 +2079,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
@@ -2109,12 +2093,12 @@
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -2124,64 +2108,56 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
       <c r="H31" s="2" t="inlineStr"/>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2189,23 +2165,31 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2239,21 +2223,29 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2263,7 +2255,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2297,24 +2289,24 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -2324,72 +2316,64 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2407,21 +2391,29 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2431,7 +2423,7 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2465,19 +2457,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2487,7 +2479,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2521,19 +2513,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2577,19 +2569,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2633,19 +2625,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2655,77 +2647,61 @@
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>conflict-of-interest</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Conflict to declare</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A42" s="2" t="n"/>
+      <c r="B42" s="2" t="n"/>
       <c r="C42" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -2733,12 +2709,12 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
@@ -2749,17 +2725,17 @@
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2749,12 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2789,7 +2765,7 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
@@ -2804,21 +2780,29 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n"/>
-      <c r="B44" s="2" t="n"/>
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2829,7 +2813,7 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
@@ -2839,34 +2823,34 @@
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Declaration</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>declaration</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2877,7 +2861,7 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2892,16 +2876,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="2" t="n"/>
       <c r="C46" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -2909,12 +2885,12 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2925,12 +2901,12 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -2949,12 +2925,12 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2965,12 +2941,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -2980,21 +2956,29 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Interest details</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>interest-details</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>applicant-interest</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Applicant interest</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -3005,7 +2989,7 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Description of the applicant's interest in the land</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
@@ -3020,16 +3004,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Interest details</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>interest-details</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
@@ -3037,23 +3013,39 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>applicant-interest</t>
+          <t>owner-details</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Applicant interest</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
+          <t>Owner details[]</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Description of the applicant's interest in the land</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
@@ -3063,7 +3055,7 @@
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3097,19 +3089,19 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr"/>
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
@@ -3119,7 +3111,7 @@
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3153,19 +3145,19 @@
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3209,19 +3201,19 @@
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
@@ -3265,19 +3257,19 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr"/>
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3287,7 +3279,7 @@
       </c>
       <c r="N53" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3311,39 +3303,31 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>informed-of-application</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Informed of application</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr"/>
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Whether the owner has been informed of the application</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3357,41 +3341,49 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>owner-details</t>
+          <t>interested-persons</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Owner details[]</t>
+          <t>Interested persons[]</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>informed-of-application</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Informed of application</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J55" s="2" t="inlineStr"/>
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Whether the owner has been informed of the application</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3425,19 +3417,19 @@
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
@@ -3447,7 +3439,7 @@
       </c>
       <c r="N56" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3481,19 +3473,19 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr"/>
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
@@ -3537,19 +3529,19 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J58" s="2" t="inlineStr"/>
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
@@ -3593,19 +3585,19 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J59" s="2" t="inlineStr"/>
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
@@ -3615,7 +3607,7 @@
       </c>
       <c r="N59" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3639,29 +3631,21 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>nature-of-interest</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Nature of interest</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Description of the nature of a person's interest in the property</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
@@ -3671,7 +3655,7 @@
       </c>
       <c r="N60" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3695,12 +3679,12 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>nature-of-interest</t>
+          <t>informed-of-application</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Nature of interest</t>
+          <t>Informed of application</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr"/>
@@ -3709,12 +3693,12 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Description of the nature of a person's interest in the property</t>
+          <t>Whether the person has been informed of the application</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
@@ -3743,12 +3727,12 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>informed-of-application</t>
+          <t>reason-not-informed</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Informed of application</t>
+          <t>Reason not informed</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
@@ -3757,79 +3741,71 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Whether the person has been informed of the application</t>
+          <t>Reason why a person was not informed of the application</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n"/>
-      <c r="B63" s="2" t="n"/>
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>interested-persons</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Interested persons[]</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>reason-not-informed</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>Reason not informed</t>
-        </is>
-      </c>
+          <t>Pre-application advice sought</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr"/>
       <c r="H63" s="2" t="inlineStr"/>
       <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Reason why a person was not informed of the application</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A64" s="2" t="n"/>
+      <c r="B64" s="2" t="n"/>
       <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -3837,12 +3813,12 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr"/>
@@ -3853,17 +3829,17 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3877,12 +3853,12 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr"/>
@@ -3893,7 +3869,7 @@
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
@@ -3917,12 +3893,12 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
@@ -3933,7 +3909,7 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
@@ -3957,12 +3933,12 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3973,7 +3949,7 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
@@ -3988,37 +3964,53 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n"/>
-      <c r="B68" s="2" t="n"/>
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr"/>
-      <c r="G68" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H68" s="2" t="inlineStr"/>
       <c r="I68" s="2" t="inlineStr"/>
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N68" s="2" t="inlineStr">
@@ -4028,16 +4020,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A69" s="2" t="n"/>
+      <c r="B69" s="2" t="n"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -4055,12 +4039,12 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr"/>
@@ -4069,12 +4053,12 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N69" s="2" t="inlineStr">
@@ -4103,12 +4087,12 @@
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr"/>
@@ -4117,7 +4101,7 @@
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
@@ -4151,12 +4135,12 @@
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr"/>
@@ -4165,12 +4149,12 @@
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
@@ -4199,12 +4183,12 @@
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr"/>
@@ -4213,7 +4197,7 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
@@ -4247,12 +4231,12 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr"/>
@@ -4261,7 +4245,7 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
@@ -4295,12 +4279,12 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr"/>
@@ -4309,7 +4293,7 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
@@ -4343,12 +4327,12 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr"/>
@@ -4357,12 +4341,12 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N75" s="2" t="inlineStr">
@@ -4391,12 +4375,12 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr"/>
@@ -4405,7 +4389,7 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
@@ -4420,64 +4404,56 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n"/>
-      <c r="B77" s="2" t="n"/>
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr"/>
+      <c r="G77" s="2" t="inlineStr"/>
       <c r="H77" s="2" t="inlineStr"/>
       <c r="I77" s="2" t="inlineStr"/>
       <c r="J77" s="2" t="inlineStr"/>
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A78" s="2" t="n"/>
+      <c r="B78" s="2" t="n"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -4485,12 +4461,12 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
@@ -4501,12 +4477,12 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
@@ -4525,12 +4501,12 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
@@ -4541,17 +4517,17 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4565,23 +4541,31 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="inlineStr"/>
-      <c r="G80" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H80" s="2" t="inlineStr"/>
       <c r="I80" s="2" t="inlineStr"/>
       <c r="J80" s="2" t="inlineStr"/>
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
@@ -4591,7 +4575,7 @@
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4615,12 +4599,12 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr"/>
@@ -4629,7 +4613,7 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
@@ -4663,12 +4647,12 @@
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr"/>
@@ -4677,7 +4661,7 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
@@ -4686,54 +4670,6 @@
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n"/>
-      <c r="B83" s="2" t="n"/>
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H83" s="2" t="inlineStr"/>
-      <c r="I83" s="2" t="inlineStr"/>
-      <c r="J83" s="2" t="inlineStr"/>
-      <c r="K83" s="2" t="inlineStr"/>
-      <c r="L83" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="M83" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N83" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -4741,30 +4677,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A49:A63"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B69:B77"/>
-    <mergeCell ref="B45"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A45"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B49:B63"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A69:A77"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="A48:A62"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A44"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B62"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B44"/>
+    <mergeCell ref="A23:A30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/lawful-development-certificate-ldc-verbose.xlsx
+++ b/generated/spreadsheet/verbose/lawful-development-certificate-ldc-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,37 +1073,29 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>uploaded-date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>base64-content</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1147,17 +1139,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1159,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1203,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1223,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1275,22 +1267,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>file-size</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,29 +1311,37 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>fee</t>
+          <t>documents</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>file</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>file-size</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1385,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1441,67 +1441,75 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>transactions</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>The details of the application payload to be submitted</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>application</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>fee</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>transactions</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1511,13 +1519,21 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1525,31 +1541,23 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1583,29 +1591,21 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>contact-priority</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1676,16 +1676,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1693,47 +1685,63 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>contact-priority</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1751,29 +1759,21 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1817,19 +1817,19 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1873,19 +1873,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1929,19 +1929,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1985,19 +1985,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2031,21 +2031,29 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2079,12 +2087,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>user-role</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>User role</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
@@ -2093,12 +2101,12 @@
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -2108,56 +2116,64 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>user-role</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>User role</t>
+        </is>
+      </c>
       <c r="H31" s="2" t="inlineStr"/>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2165,31 +2181,23 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2223,29 +2231,21 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2289,24 +2289,24 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>contact-priority</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -2316,64 +2316,72 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>contact-priority</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2391,29 +2399,21 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2457,19 +2457,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2513,19 +2513,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2569,19 +2569,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2625,19 +2625,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2647,61 +2647,77 @@
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
+          <t>Applicants[]</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>conflict-of-interest</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -2709,12 +2725,12 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
@@ -2725,17 +2741,17 @@
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2749,12 +2765,12 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2765,7 +2781,7 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
@@ -2780,29 +2796,21 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>Checklist</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>checklist</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2813,7 +2821,7 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
@@ -2823,34 +2831,34 @@
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>Declaration</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>declaration</t>
+          <t>checklist</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2861,7 +2869,7 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2876,8 +2884,16 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -2885,12 +2901,12 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2901,12 +2917,12 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -2925,12 +2941,12 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2941,12 +2957,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -2956,29 +2972,21 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>Interest details</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>interest-details</t>
-        </is>
-      </c>
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>applicant-interest</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Applicant interest</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -2989,7 +2997,7 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Description of the applicant's interest in the land</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
@@ -3004,8 +3012,16 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Interest details</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>interest-details</t>
+        </is>
+      </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
@@ -3013,39 +3029,23 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>owner-details</t>
+          <t>applicant-interest</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Owner details[]</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Applicant interest</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr"/>
+      <c r="H49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>Description of the applicant's interest in the land</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3089,19 +3089,19 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr"/>
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3145,19 +3145,19 @@
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3201,19 +3201,19 @@
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
@@ -3257,19 +3257,19 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr"/>
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="N53" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3303,31 +3303,39 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>informed-of-application</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Informed of application</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="inlineStr"/>
-      <c r="I54" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J54" s="2" t="inlineStr"/>
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Whether the owner has been informed of the application</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3341,49 +3349,41 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>interested-persons</t>
+          <t>owner-details</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Interested persons[]</t>
+          <t>Owner details[]</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>informed-of-application</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Informed of application</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr"/>
       <c r="J55" s="2" t="inlineStr"/>
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>Whether the owner has been informed of the application</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3417,19 +3417,19 @@
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="N56" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3473,19 +3473,19 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr"/>
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
@@ -3529,19 +3529,19 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J58" s="2" t="inlineStr"/>
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
@@ -3585,19 +3585,19 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J59" s="2" t="inlineStr"/>
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="N59" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3631,21 +3631,29 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>nature-of-interest</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Nature of interest</t>
-        </is>
-      </c>
-      <c r="H60" s="2" t="inlineStr"/>
-      <c r="I60" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Description of the nature of a person's interest in the property</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
@@ -3655,7 +3663,7 @@
       </c>
       <c r="N60" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3679,12 +3687,12 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>informed-of-application</t>
+          <t>nature-of-interest</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Informed of application</t>
+          <t>Nature of interest</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr"/>
@@ -3693,12 +3701,12 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Whether the person has been informed of the application</t>
+          <t>Description of the nature of a person's interest in the property</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
@@ -3727,12 +3735,12 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>reason-not-informed</t>
+          <t>informed-of-application</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Reason not informed</t>
+          <t>Informed of application</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
@@ -3741,71 +3749,79 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Reason why a person was not informed of the application</t>
+          <t>Whether the person has been informed of the application</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A63" s="2" t="n"/>
+      <c r="B63" s="2" t="n"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>interested-persons</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr"/>
-      <c r="G63" s="2" t="inlineStr"/>
+          <t>Interested persons[]</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>reason-not-informed</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>Reason not informed</t>
+        </is>
+      </c>
       <c r="H63" s="2" t="inlineStr"/>
       <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Reason why a person was not informed of the application</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n"/>
-      <c r="B64" s="2" t="n"/>
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -3813,12 +3829,12 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr"/>
@@ -3829,17 +3845,17 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3853,12 +3869,12 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr"/>
@@ -3869,7 +3885,7 @@
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
@@ -3893,12 +3909,12 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
@@ -3909,7 +3925,7 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
@@ -3933,12 +3949,12 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3949,7 +3965,7 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
@@ -3964,53 +3980,37 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A68" s="2" t="n"/>
+      <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>site-boundary</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="inlineStr">
-        <is>
-          <t>Site boundary</t>
-        </is>
-      </c>
+          <t>Advice summary</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr"/>
       <c r="H68" s="2" t="inlineStr"/>
       <c r="I68" s="2" t="inlineStr"/>
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N68" s="2" t="inlineStr">
@@ -4020,8 +4020,16 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n"/>
-      <c r="B69" s="2" t="n"/>
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -4039,12 +4047,12 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>site-boundary</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr"/>
@@ -4053,12 +4061,12 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N69" s="2" t="inlineStr">
@@ -4087,12 +4095,12 @@
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr"/>
@@ -4101,7 +4109,7 @@
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
@@ -4135,12 +4143,12 @@
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr"/>
@@ -4149,12 +4157,12 @@
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
@@ -4183,12 +4191,12 @@
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr"/>
@@ -4197,7 +4205,7 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
@@ -4231,12 +4239,12 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr"/>
@@ -4245,7 +4253,7 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
@@ -4279,12 +4287,12 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr"/>
@@ -4293,7 +4301,7 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
@@ -4327,12 +4335,12 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr"/>
@@ -4341,12 +4349,12 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N75" s="2" t="inlineStr">
@@ -4375,12 +4383,12 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>uprns</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr"/>
@@ -4389,7 +4397,7 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
@@ -4404,56 +4412,64 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A77" s="2" t="n"/>
+      <c r="B77" s="2" t="n"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
-        </is>
-      </c>
-      <c r="F77" s="2" t="inlineStr"/>
-      <c r="G77" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>uprns</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="inlineStr">
+        <is>
+          <t>UPRNs[]</t>
+        </is>
+      </c>
       <c r="H77" s="2" t="inlineStr"/>
       <c r="I77" s="2" t="inlineStr"/>
       <c r="J77" s="2" t="inlineStr"/>
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n"/>
-      <c r="B78" s="2" t="n"/>
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -4461,12 +4477,12 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Site seen from public area</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
@@ -4477,12 +4493,12 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
@@ -4501,12 +4517,12 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
@@ -4517,17 +4533,17 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4541,31 +4557,23 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>fullname</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr"/>
+      <c r="G80" s="2" t="inlineStr"/>
       <c r="H80" s="2" t="inlineStr"/>
       <c r="I80" s="2" t="inlineStr"/>
       <c r="J80" s="2" t="inlineStr"/>
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
@@ -4575,7 +4583,7 @@
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4599,12 +4607,12 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>fullname</t>
         </is>
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr"/>
@@ -4613,7 +4621,7 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
@@ -4647,12 +4655,12 @@
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr"/>
@@ -4661,15 +4669,63 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
+          <t>A phone number</t>
+        </is>
+      </c>
+      <c r="M82" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N82" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n"/>
+      <c r="B83" s="2" t="n"/>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>other-contact</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="inlineStr"/>
+      <c r="I83" s="2" t="inlineStr"/>
+      <c r="J83" s="2" t="inlineStr"/>
+      <c r="K83" s="2" t="inlineStr"/>
+      <c r="L83" s="2" t="inlineStr">
+        <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="M82" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N82" s="2" t="inlineStr">
+      <c r="M83" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N83" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -4677,30 +4733,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="A48:A62"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A44"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B62"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B44"/>
-    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A49:A63"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B69:B77"/>
+    <mergeCell ref="B45"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A45"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B49:B63"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A69:A77"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/lawful-development-certificate-ldc-verbose.xlsx
+++ b/generated/spreadsheet/verbose/lawful-development-certificate-ldc-verbose.xlsx
@@ -861,7 +861,7 @@
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/lawful-development-certificate-ldc-verbose.xlsx
+++ b/generated/spreadsheet/verbose/lawful-development-certificate-ldc-verbose.xlsx
@@ -762,7 +762,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
